--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269ED231-5AD9-4705-8697-EBA314C32660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E1E4A-853B-4EA1-98F0-BEA00041992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>bootstrap</t>
   </si>
@@ -48,10 +48,16 @@
     <t>tema</t>
   </si>
   <si>
-    <t>javascrip</t>
-  </si>
-  <si>
     <t>hora</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript/ git </t>
+  </si>
+  <si>
+    <t>algoritmos Java</t>
   </si>
 </sst>
 </file>
@@ -413,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -463,14 +469,34 @@
         <v>44343</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>44347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>44348</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E1E4A-853B-4EA1-98F0-BEA00041992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD91AF4E-C11C-490D-97A6-DCE824677BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
+    <workbookView xWindow="3585" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>bootstrap</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>algoritmos Java</t>
+  </si>
+  <si>
+    <t>ejercicio 2 bootstrap</t>
+  </si>
+  <si>
+    <t>less, algoritmos II</t>
+  </si>
+  <si>
+    <t>como abordar java, algoritmos II, LET</t>
   </si>
 </sst>
 </file>
@@ -419,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,6 +507,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>44349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>44354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD91AF4E-C11C-490D-97A6-DCE824677BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD1569-2E5C-4A19-A1C5-50D36702B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
+    <workbookView xWindow="1800" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>bootstrap</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>como abordar java, algoritmos II, LET</t>
+  </si>
+  <si>
+    <t>algoritmos IV</t>
+  </si>
+  <si>
+    <t>algoritmos III, array.length,math random</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +548,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>44355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>44356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD1569-2E5C-4A19-A1C5-50D36702B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302C961-F9E9-402A-BC9F-48785457679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>bootstrap</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>algoritmos III, array.length,math random</t>
+  </si>
+  <si>
+    <t>algoritmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reforzamiento, algoritmos </t>
+  </si>
+  <si>
+    <t>jquery</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +573,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>44357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>44358</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302C961-F9E9-402A-BC9F-48785457679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E3F5B-9901-484D-9AC5-CC959810A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>bootstrap</t>
   </si>
@@ -81,7 +81,13 @@
     <t xml:space="preserve">reforzamiento, algoritmos </t>
   </si>
   <si>
-    <t>jquery</t>
+    <t>objetos, jquery</t>
+  </si>
+  <si>
+    <t>this:Jquery2,funciones-jquery,(proyecto con profe)</t>
+  </si>
+  <si>
+    <t>funciones jquery, ejercicio ninja</t>
   </si>
 </sst>
 </file>
@@ -443,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -605,6 +611,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>44362</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E3F5B-9901-484D-9AC5-CC959810A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FDF59-5A6E-4E0A-AE1F-A5A961DBFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
+    <workbookView xWindow="1800" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>bootstrap</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>funciones jquery, ejercicio ninja</t>
+  </si>
+  <si>
+    <t>ejercicio gato-ninja, uso de for, variable temp, conversacion de compañeros</t>
+  </si>
+  <si>
+    <t>api,JSON anotacion, get es una solicitud</t>
   </si>
 </sst>
 </file>
@@ -449,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,6 +633,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>44364</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendario clases.xlsx
+++ b/calendario clases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\curso63RoR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FDF59-5A6E-4E0A-AE1F-A5A961DBFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA1AE3-7DD1-42F3-A982-6791538C7D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDD01856-7B84-48EF-93CA-ED9D3FC5F03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>bootstrap</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>api,JSON anotacion, get es una solicitud</t>
+  </si>
+  <si>
+    <t>instalacion de enlaces en visualstudiocode</t>
+  </si>
+  <si>
+    <t>ejercicio api tiempo, instalacion api google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instalacion programas para base de datos, lectura  de materia </t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00196459-BDB9-43F6-8065-8F8295AF10E4}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,55 +489,48 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>44341</v>
+        <v>44330</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>44343</v>
+        <v>44341</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>44347</v>
+        <v>44342</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>44348</v>
+        <v>44343</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -536,18 +538,22 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>44350</v>
+        <v>44348</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -555,98 +561,133 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>44354</v>
+        <v>44350</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>44355</v>
+        <v>44351</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>44356</v>
+        <v>44354</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>44357</v>
+        <v>44355</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>44358</v>
+        <v>44356</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>44359</v>
+        <v>44357</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>44361</v>
+        <v>44358</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>44362</v>
+        <v>44359</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>44364</v>
+        <v>44362</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>44364</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>44365</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>44370</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>44371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
